--- a/trunk/CSOF5302 Desarrollo de Software Basado en Componentes/plantillaCalificacionTaller1.xlsx
+++ b/trunk/CSOF5302 Desarrollo de Software Basado en Componentes/plantillaCalificacionTaller1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="19845" windowHeight="10215" activeTab="1"/>
+    <workbookView xWindow="15405" yWindow="120" windowWidth="3735" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
@@ -1110,6 +1110,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Asistente:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ocurren errores de compilación en el método Init una vez creado el Proxy</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H32" authorId="0">
       <text>
         <r>
@@ -1452,6 +1476,30 @@
           </rPr>
           <t xml:space="preserve">
 La anotación no tiene una funcionalidad claramente definida. Debería funcionar solo para interfaces y no métodos. Al momento de realizar la inserción de código para esta anotación, se buscan métodos con el nombre "preSaveInfo" (que se encuentra en una interface y que está anotado con la anotación creada) Por lo que si se anota otra interface con un método de diferente nombre, no tendrá ningún efecto.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Asistente:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ocurren errores de compilación en el método Init una vez creado el Proxy</t>
         </r>
       </text>
     </comment>
@@ -2713,54 +2761,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Asistente:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-No debería ser necesario que la clase que se quiera anotar con PreConstructor implemente una interface de manera obligatoria para que la anotación funcione</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Asistente:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-No debería ser necesario que la clase que se quiera anotar con PostConstructor implemente una interface de manera obligatoria para que la anotación funcione</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="N23" authorId="0">
       <text>
         <r>
@@ -2806,54 +2806,6 @@
           </rPr>
           <t xml:space="preserve">
 No definieron ni implementaron claramente una anotación que funcionara a nivel de interfaces</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Asistente:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-No debería ser necesario que la clase que se quiera anotar con PreConstructor implemente una interface de manera obligatoria para que la anotación funcione</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Asistente:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-No debería ser necesario que la clase que se quiera anotar con PostConstructor implemente una interface de manera obligatoria para que la anotación funcione</t>
         </r>
       </text>
     </comment>
@@ -4565,7 +4517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4575,12 +4527,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4837,7 +4783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4860,7 +4806,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4887,6 +4832,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4950,10 +4897,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4967,12 +4914,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5301,20 +5242,20 @@
   <sheetData>
     <row r="1" spans="2:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -5330,18 +5271,18 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -5357,18 +5298,18 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -5384,20 +5325,20 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -5413,18 +5354,18 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -5440,20 +5381,20 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -5499,18 +5440,18 @@
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
       <c r="M9" s="2" t="s">
         <v>4</v>
       </c>
@@ -5532,18 +5473,18 @@
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="7">
         <v>5</v>
       </c>
@@ -5565,18 +5506,18 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="7">
         <v>5</v>
       </c>
@@ -5598,18 +5539,18 @@
       <c r="B12" s="6">
         <v>3</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
       <c r="M12" s="7">
         <v>10</v>
       </c>
@@ -5631,18 +5572,18 @@
       <c r="B13" s="6">
         <v>4</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
       <c r="M13" s="7">
         <v>5</v>
       </c>
@@ -5664,18 +5605,18 @@
       <c r="B14" s="6">
         <v>5</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="7">
         <v>5</v>
       </c>
@@ -5697,18 +5638,18 @@
       <c r="B15" s="6">
         <v>6</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
+      <c r="C15" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="8">
         <v>10</v>
       </c>
@@ -5730,18 +5671,18 @@
       <c r="B16" s="6">
         <v>7</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="7">
         <v>5</v>
       </c>
@@ -5763,18 +5704,18 @@
       <c r="B17" s="6">
         <v>8</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
       <c r="M17" s="7">
         <v>5</v>
       </c>
@@ -5796,18 +5737,18 @@
       <c r="B18" s="6">
         <v>9</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
       <c r="M18" s="7">
         <v>10</v>
       </c>
@@ -5829,18 +5770,18 @@
       <c r="B19" s="6">
         <v>10</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
       <c r="M19" s="7">
         <v>5</v>
       </c>
@@ -5862,18 +5803,18 @@
       <c r="B20" s="6">
         <v>11</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
       <c r="M20" s="7">
         <v>5</v>
       </c>
@@ -5895,18 +5836,18 @@
       <c r="B21" s="6">
         <v>12</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="7">
         <v>10</v>
       </c>
@@ -5928,18 +5869,18 @@
       <c r="B22" s="6">
         <v>13</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="7">
         <v>20</v>
       </c>
@@ -5959,16 +5900,16 @@
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -10967,26 +10908,26 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -10995,24 +10936,24 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="34"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="35"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -11021,24 +10962,24 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="37"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="38"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -11047,26 +10988,26 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -11075,24 +11016,24 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -11101,26 +11042,26 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -11155,56 +11096,56 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="14" t="s">
         <v>34</v>
       </c>
       <c r="T9" s="1"/>
@@ -11215,75 +11156,75 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="53">
+      <c r="B10" s="54">
         <v>3</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="12">
-        <v>10</v>
-      </c>
-      <c r="G10" s="12">
-        <v>10</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="F10" s="11">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11">
+        <v>10</v>
+      </c>
+      <c r="H10" s="11">
         <v>5</v>
       </c>
-      <c r="I10" s="12">
-        <v>10</v>
-      </c>
-      <c r="J10" s="12">
-        <v>10</v>
-      </c>
-      <c r="K10" s="12">
+      <c r="I10" s="11">
+        <v>10</v>
+      </c>
+      <c r="J10" s="11">
+        <v>10</v>
+      </c>
+      <c r="K10" s="11">
         <v>5</v>
       </c>
-      <c r="L10" s="12">
-        <v>10</v>
-      </c>
-      <c r="M10" s="12">
-        <v>10</v>
-      </c>
-      <c r="N10" s="12">
-        <v>10</v>
-      </c>
-      <c r="O10" s="12">
+      <c r="L10" s="11">
+        <v>10</v>
+      </c>
+      <c r="M10" s="11">
+        <v>10</v>
+      </c>
+      <c r="N10" s="11">
+        <v>10</v>
+      </c>
+      <c r="O10" s="11">
         <v>10</v>
       </c>
       <c r="P10" s="2">
         <v>7</v>
       </c>
-      <c r="Q10" s="12">
-        <v>10</v>
-      </c>
-      <c r="R10" s="12">
+      <c r="Q10" s="11">
+        <v>10</v>
+      </c>
+      <c r="R10" s="11">
         <v>8</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="13">
         <f>((F10*(Requerimientos!$M$10/100))+(G10*(Requerimientos!$M$11/100))+(H10*(Requerimientos!$M$12/100))+(I10*(Requerimientos!$M$13/100))+(J10*(Requerimientos!$M$14/100))+(K10*(Requerimientos!$M$15/100))+(L10*(Requerimientos!$M$16/100))+(M10*(Requerimientos!$M$17/100))+(N10*(Requerimientos!$M$18/100))+(O10*(Requerimientos!$M$19/100))+(P10*(Requerimientos!$M$20/100))+(Q10*(Requerimientos!$M$21/100))+(R10*(Requerimientos!$M$22/100)))/2</f>
         <v>4.2249999999999996</v>
       </c>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="48">
+      <c r="B11" s="49">
         <v>9</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>96</v>
       </c>
       <c r="F11" s="5">
@@ -11325,26 +11266,26 @@
       <c r="R11" s="2">
         <v>10</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="10">
         <f>((F11*(Requerimientos!$M$10/100))+(G11*(Requerimientos!$M$11/100))+(H11*(Requerimientos!$M$12/100))+(I11*(Requerimientos!$M$13/100))+(J11*(Requerimientos!$M$14/100))+(K11*(Requerimientos!$M$15/100))+(L11*(Requerimientos!$M$16/100))+(M11*(Requerimientos!$M$17/100))+(N11*(Requerimientos!$M$18/100))+(O11*(Requerimientos!$M$19/100))+(P11*(Requerimientos!$M$20/100))+(Q11*(Requerimientos!$M$21/100))+(R11*(Requerimientos!$M$22/100)))/2</f>
         <v>4.4749999999999996</v>
       </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="48">
+      <c r="B12" s="49">
         <v>2</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F12" s="5">
@@ -11386,26 +11327,26 @@
       <c r="R12" s="2">
         <v>0</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="10">
         <f>((F12*(Requerimientos!$M$10/100))+(G12*(Requerimientos!$M$11/100))+(H12*(Requerimientos!$M$12/100))+(I12*(Requerimientos!$M$13/100))+(J12*(Requerimientos!$M$14/100))+(K12*(Requerimientos!$M$15/100))+(L12*(Requerimientos!$M$16/100))+(M12*(Requerimientos!$M$17/100))+(N12*(Requerimientos!$M$18/100))+(O12*(Requerimientos!$M$19/100))+(P12*(Requerimientos!$M$20/100))+(Q12*(Requerimientos!$M$21/100))+(R12*(Requerimientos!$M$22/100)))/2</f>
         <v>3.5</v>
       </c>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="48">
+      <c r="B13" s="49">
         <v>13</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F13" s="5">
@@ -11447,87 +11388,87 @@
       <c r="R13" s="2">
         <v>10</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="10">
         <f>((F13*(Requerimientos!$M$10/100))+(G13*(Requerimientos!$M$11/100))+(H13*(Requerimientos!$M$12/100))+(I13*(Requerimientos!$M$13/100))+(J13*(Requerimientos!$M$14/100))+(K13*(Requerimientos!$M$15/100))+(L13*(Requerimientos!$M$16/100))+(M13*(Requerimientos!$M$17/100))+(N13*(Requerimientos!$M$18/100))+(O13*(Requerimientos!$M$19/100))+(P13*(Requerimientos!$M$20/100))+(Q13*(Requerimientos!$M$21/100))+(R13*(Requerimientos!$M$22/100)))/2</f>
         <v>4.7</v>
       </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="48">
+      <c r="B14" s="49">
         <v>3</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="12">
-        <v>10</v>
-      </c>
-      <c r="G14" s="12">
-        <v>10</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="F14" s="11">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11">
+        <v>10</v>
+      </c>
+      <c r="H14" s="11">
         <v>5</v>
       </c>
-      <c r="I14" s="12">
-        <v>10</v>
-      </c>
-      <c r="J14" s="12">
-        <v>10</v>
-      </c>
-      <c r="K14" s="12">
+      <c r="I14" s="11">
+        <v>10</v>
+      </c>
+      <c r="J14" s="11">
+        <v>10</v>
+      </c>
+      <c r="K14" s="11">
         <v>5</v>
       </c>
-      <c r="L14" s="12">
-        <v>10</v>
-      </c>
-      <c r="M14" s="12">
-        <v>10</v>
-      </c>
-      <c r="N14" s="12">
-        <v>10</v>
-      </c>
-      <c r="O14" s="12">
+      <c r="L14" s="11">
+        <v>10</v>
+      </c>
+      <c r="M14" s="11">
+        <v>10</v>
+      </c>
+      <c r="N14" s="11">
+        <v>10</v>
+      </c>
+      <c r="O14" s="11">
         <v>10</v>
       </c>
       <c r="P14" s="2">
         <v>7</v>
       </c>
-      <c r="Q14" s="12">
-        <v>10</v>
-      </c>
-      <c r="R14" s="12">
+      <c r="Q14" s="11">
+        <v>10</v>
+      </c>
+      <c r="R14" s="11">
         <v>8</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="10">
         <f>((F14*(Requerimientos!$M$10/100))+(G14*(Requerimientos!$M$11/100))+(H14*(Requerimientos!$M$12/100))+(I14*(Requerimientos!$M$13/100))+(J14*(Requerimientos!$M$14/100))+(K14*(Requerimientos!$M$15/100))+(L14*(Requerimientos!$M$16/100))+(M14*(Requerimientos!$M$17/100))+(N14*(Requerimientos!$M$18/100))+(O14*(Requerimientos!$M$19/100))+(P14*(Requerimientos!$M$20/100))+(Q14*(Requerimientos!$M$21/100))+(R14*(Requerimientos!$M$22/100)))/2</f>
         <v>4.2249999999999996</v>
       </c>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="48">
+      <c r="B15" s="49">
         <v>13</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>104</v>
       </c>
       <c r="F15" s="5">
@@ -11569,26 +11510,26 @@
       <c r="R15" s="2">
         <v>10</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="10">
         <f>((F15*(Requerimientos!$M$10/100))+(G15*(Requerimientos!$M$11/100))+(H15*(Requerimientos!$M$12/100))+(I15*(Requerimientos!$M$13/100))+(J15*(Requerimientos!$M$14/100))+(K15*(Requerimientos!$M$15/100))+(L15*(Requerimientos!$M$16/100))+(M15*(Requerimientos!$M$17/100))+(N15*(Requerimientos!$M$18/100))+(O15*(Requerimientos!$M$19/100))+(P15*(Requerimientos!$M$20/100))+(Q15*(Requerimientos!$M$21/100))+(R15*(Requerimientos!$M$22/100)))/2</f>
         <v>4.7</v>
       </c>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="48">
+      <c r="B16" s="49">
         <v>7</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>106</v>
       </c>
       <c r="F16" s="2">
@@ -11630,26 +11571,26 @@
       <c r="R16" s="2">
         <v>8</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="10">
         <f>((F16*(Requerimientos!$M$10/100))+(G16*(Requerimientos!$M$11/100))+(H16*(Requerimientos!$M$12/100))+(I16*(Requerimientos!$M$13/100))+(J16*(Requerimientos!$M$14/100))+(K16*(Requerimientos!$M$15/100))+(L16*(Requerimientos!$M$16/100))+(M16*(Requerimientos!$M$17/100))+(N16*(Requerimientos!$M$18/100))+(O16*(Requerimientos!$M$19/100))+(P16*(Requerimientos!$M$20/100))+(Q16*(Requerimientos!$M$21/100))+(R16*(Requerimientos!$M$22/100)))/2</f>
         <v>4.8</v>
       </c>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B17" s="48">
+      <c r="B17" s="49">
         <v>1</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>108</v>
       </c>
       <c r="F17" s="5">
@@ -11691,26 +11632,26 @@
       <c r="R17" s="2">
         <v>8</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="10">
         <f>((F17*(Requerimientos!$M$10/100))+(G17*(Requerimientos!$M$11/100))+(H17*(Requerimientos!$M$12/100))+(I17*(Requerimientos!$M$13/100))+(J17*(Requerimientos!$M$14/100))+(K17*(Requerimientos!$M$15/100))+(L17*(Requerimientos!$M$16/100))+(M17*(Requerimientos!$M$17/100))+(N17*(Requerimientos!$M$18/100))+(O17*(Requerimientos!$M$19/100))+(P17*(Requerimientos!$M$20/100))+(Q17*(Requerimientos!$M$21/100))+(R17*(Requerimientos!$M$22/100)))/2</f>
         <v>4.5250000000000004</v>
       </c>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B18" s="48">
-        <v>10</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="18" t="s">
+      <c r="B18" s="49">
+        <v>10</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="5">
@@ -11752,26 +11693,26 @@
       <c r="R18" s="2">
         <v>10</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="10">
         <f>((F18*(Requerimientos!$M$10/100))+(G18*(Requerimientos!$M$11/100))+(H18*(Requerimientos!$M$12/100))+(I18*(Requerimientos!$M$13/100))+(J18*(Requerimientos!$M$14/100))+(K18*(Requerimientos!$M$15/100))+(L18*(Requerimientos!$M$16/100))+(M18*(Requerimientos!$M$17/100))+(N18*(Requerimientos!$M$18/100))+(O18*(Requerimientos!$M$19/100))+(P18*(Requerimientos!$M$20/100))+(Q18*(Requerimientos!$M$21/100))+(R18*(Requerimientos!$M$22/100)))/2</f>
         <v>4.95</v>
       </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="48">
+      <c r="B19" s="49">
         <v>1</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F19" s="5">
@@ -11813,26 +11754,26 @@
       <c r="R19" s="2">
         <v>8</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="10">
         <f>((F19*(Requerimientos!$M$10/100))+(G19*(Requerimientos!$M$11/100))+(H19*(Requerimientos!$M$12/100))+(I19*(Requerimientos!$M$13/100))+(J19*(Requerimientos!$M$14/100))+(K19*(Requerimientos!$M$15/100))+(L19*(Requerimientos!$M$16/100))+(M19*(Requerimientos!$M$17/100))+(N19*(Requerimientos!$M$18/100))+(O19*(Requerimientos!$M$19/100))+(P19*(Requerimientos!$M$20/100))+(Q19*(Requerimientos!$M$21/100))+(R19*(Requerimientos!$M$22/100)))/2</f>
         <v>4.5250000000000004</v>
       </c>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="48">
+      <c r="B20" s="49">
         <v>14</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>114</v>
       </c>
       <c r="F20" s="5">
@@ -11874,26 +11815,26 @@
       <c r="R20" s="2">
         <v>10</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="10">
         <f>((F20*(Requerimientos!$M$10/100))+(G20*(Requerimientos!$M$11/100))+(H20*(Requerimientos!$M$12/100))+(I20*(Requerimientos!$M$13/100))+(J20*(Requerimientos!$M$14/100))+(K20*(Requerimientos!$M$15/100))+(L20*(Requerimientos!$M$16/100))+(M20*(Requerimientos!$M$17/100))+(N20*(Requerimientos!$M$18/100))+(O20*(Requerimientos!$M$19/100))+(P20*(Requerimientos!$M$20/100))+(Q20*(Requerimientos!$M$21/100))+(R20*(Requerimientos!$M$22/100)))/2</f>
         <v>5</v>
       </c>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B21" s="48">
-        <v>10</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="18" t="s">
+      <c r="B21" s="49">
+        <v>10</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>116</v>
       </c>
       <c r="F21" s="5">
@@ -11935,26 +11876,26 @@
       <c r="R21" s="2">
         <v>10</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="10">
         <f>((F21*(Requerimientos!$M$10/100))+(G21*(Requerimientos!$M$11/100))+(H21*(Requerimientos!$M$12/100))+(I21*(Requerimientos!$M$13/100))+(J21*(Requerimientos!$M$14/100))+(K21*(Requerimientos!$M$15/100))+(L21*(Requerimientos!$M$16/100))+(M21*(Requerimientos!$M$17/100))+(N21*(Requerimientos!$M$18/100))+(O21*(Requerimientos!$M$19/100))+(P21*(Requerimientos!$M$20/100))+(Q21*(Requerimientos!$M$21/100))+(R21*(Requerimientos!$M$22/100)))/2</f>
         <v>4.95</v>
       </c>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B22" s="48">
+      <c r="B22" s="49">
         <v>11</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>118</v>
       </c>
       <c r="F22" s="2">
@@ -11996,26 +11937,26 @@
       <c r="R22" s="2">
         <v>1</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22" s="10">
         <f>((F22*(Requerimientos!$M$10/100))+(G22*(Requerimientos!$M$11/100))+(H22*(Requerimientos!$M$12/100))+(I22*(Requerimientos!$M$13/100))+(J22*(Requerimientos!$M$14/100))+(K22*(Requerimientos!$M$15/100))+(L22*(Requerimientos!$M$16/100))+(M22*(Requerimientos!$M$17/100))+(N22*(Requerimientos!$M$18/100))+(O22*(Requerimientos!$M$19/100))+(P22*(Requerimientos!$M$20/100))+(Q22*(Requerimientos!$M$21/100))+(R22*(Requerimientos!$M$22/100)))/2</f>
         <v>3.4750000000000001</v>
       </c>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="48">
+      <c r="B23" s="49">
         <v>6</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="50"/>
+      <c r="D23" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>120</v>
       </c>
       <c r="F23" s="2">
@@ -12057,26 +11998,26 @@
       <c r="R23" s="2">
         <v>10</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23" s="10">
         <f>((F23*(Requerimientos!$M$10/100))+(G23*(Requerimientos!$M$11/100))+(H23*(Requerimientos!$M$12/100))+(I23*(Requerimientos!$M$13/100))+(J23*(Requerimientos!$M$14/100))+(K23*(Requerimientos!$M$15/100))+(L23*(Requerimientos!$M$16/100))+(M23*(Requerimientos!$M$17/100))+(N23*(Requerimientos!$M$18/100))+(O23*(Requerimientos!$M$19/100))+(P23*(Requerimientos!$M$20/100))+(Q23*(Requerimientos!$M$21/100))+(R23*(Requerimientos!$M$22/100)))/2</f>
         <v>4.7249999999999996</v>
       </c>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="48">
+      <c r="B24" s="49">
         <v>9</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="50"/>
+      <c r="D24" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F24" s="5">
@@ -12118,26 +12059,26 @@
       <c r="R24" s="2">
         <v>10</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="10">
         <f>((F24*(Requerimientos!$M$10/100))+(G24*(Requerimientos!$M$11/100))+(H24*(Requerimientos!$M$12/100))+(I24*(Requerimientos!$M$13/100))+(J24*(Requerimientos!$M$14/100))+(K24*(Requerimientos!$M$15/100))+(L24*(Requerimientos!$M$16/100))+(M24*(Requerimientos!$M$17/100))+(N24*(Requerimientos!$M$18/100))+(O24*(Requerimientos!$M$19/100))+(P24*(Requerimientos!$M$20/100))+(Q24*(Requerimientos!$M$21/100))+(R24*(Requerimientos!$M$22/100)))/2</f>
         <v>4.4749999999999996</v>
       </c>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="48">
+      <c r="B25" s="49">
         <v>8</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="50"/>
+      <c r="D25" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>124</v>
       </c>
       <c r="F25" s="2">
@@ -12179,26 +12120,26 @@
       <c r="R25" s="2">
         <v>10</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S25" s="10">
         <f>((F25*(Requerimientos!$M$10/100))+(G25*(Requerimientos!$M$11/100))+(H25*(Requerimientos!$M$12/100))+(I25*(Requerimientos!$M$13/100))+(J25*(Requerimientos!$M$14/100))+(K25*(Requerimientos!$M$15/100))+(L25*(Requerimientos!$M$16/100))+(M25*(Requerimientos!$M$17/100))+(N25*(Requerimientos!$M$18/100))+(O25*(Requerimientos!$M$19/100))+(P25*(Requerimientos!$M$20/100))+(Q25*(Requerimientos!$M$21/100))+(R25*(Requerimientos!$M$22/100)))/2</f>
         <v>5</v>
       </c>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="48">
+      <c r="B26" s="49">
         <v>4</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>126</v>
       </c>
       <c r="F26" s="2">
@@ -12240,26 +12181,26 @@
       <c r="R26" s="2">
         <v>2</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="10">
         <f>((F26*(Requerimientos!$M$10/100))+(G26*(Requerimientos!$M$11/100))+(H26*(Requerimientos!$M$12/100))+(I26*(Requerimientos!$M$13/100))+(J26*(Requerimientos!$M$14/100))+(K26*(Requerimientos!$M$15/100))+(L26*(Requerimientos!$M$16/100))+(M26*(Requerimientos!$M$17/100))+(N26*(Requerimientos!$M$18/100))+(O26*(Requerimientos!$M$19/100))+(P26*(Requerimientos!$M$20/100))+(Q26*(Requerimientos!$M$21/100))+(R26*(Requerimientos!$M$22/100)))/2</f>
         <v>3.95</v>
       </c>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="48">
+      <c r="B27" s="49">
         <v>8</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>128</v>
       </c>
       <c r="F27" s="2">
@@ -12301,26 +12242,26 @@
       <c r="R27" s="2">
         <v>10</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S27" s="10">
         <f>((F27*(Requerimientos!$M$10/100))+(G27*(Requerimientos!$M$11/100))+(H27*(Requerimientos!$M$12/100))+(I27*(Requerimientos!$M$13/100))+(J27*(Requerimientos!$M$14/100))+(K27*(Requerimientos!$M$15/100))+(L27*(Requerimientos!$M$16/100))+(M27*(Requerimientos!$M$17/100))+(N27*(Requerimientos!$M$18/100))+(O27*(Requerimientos!$M$19/100))+(P27*(Requerimientos!$M$20/100))+(Q27*(Requerimientos!$M$21/100))+(R27*(Requerimientos!$M$22/100)))/2</f>
         <v>5</v>
       </c>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="48">
+      <c r="B28" s="49">
         <v>14</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="50"/>
+      <c r="D28" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>130</v>
       </c>
       <c r="F28" s="5">
@@ -12362,26 +12303,26 @@
       <c r="R28" s="2">
         <v>10</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S28" s="10">
         <f>((F28*(Requerimientos!$M$10/100))+(G28*(Requerimientos!$M$11/100))+(H28*(Requerimientos!$M$12/100))+(I28*(Requerimientos!$M$13/100))+(J28*(Requerimientos!$M$14/100))+(K28*(Requerimientos!$M$15/100))+(L28*(Requerimientos!$M$16/100))+(M28*(Requerimientos!$M$17/100))+(N28*(Requerimientos!$M$18/100))+(O28*(Requerimientos!$M$19/100))+(P28*(Requerimientos!$M$20/100))+(Q28*(Requerimientos!$M$21/100))+(R28*(Requerimientos!$M$22/100)))/2</f>
         <v>5</v>
       </c>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B29" s="48">
+      <c r="B29" s="49">
         <v>13</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="18" t="s">
+      <c r="C29" s="50"/>
+      <c r="D29" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>132</v>
       </c>
       <c r="F29" s="5">
@@ -12423,26 +12364,26 @@
       <c r="R29" s="2">
         <v>10</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S29" s="10">
         <f>((F29*(Requerimientos!$M$10/100))+(G29*(Requerimientos!$M$11/100))+(H29*(Requerimientos!$M$12/100))+(I29*(Requerimientos!$M$13/100))+(J29*(Requerimientos!$M$14/100))+(K29*(Requerimientos!$M$15/100))+(L29*(Requerimientos!$M$16/100))+(M29*(Requerimientos!$M$17/100))+(N29*(Requerimientos!$M$18/100))+(O29*(Requerimientos!$M$19/100))+(P29*(Requerimientos!$M$20/100))+(Q29*(Requerimientos!$M$21/100))+(R29*(Requerimientos!$M$22/100)))/2</f>
         <v>4.7</v>
       </c>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="48">
+      <c r="B30" s="49">
         <v>7</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="18" t="s">
+      <c r="C30" s="50"/>
+      <c r="D30" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>134</v>
       </c>
       <c r="F30" s="2">
@@ -12484,61 +12425,87 @@
       <c r="R30" s="2">
         <v>8</v>
       </c>
-      <c r="S30" s="11">
+      <c r="S30" s="10">
         <f>((F30*(Requerimientos!$M$10/100))+(G30*(Requerimientos!$M$11/100))+(H30*(Requerimientos!$M$12/100))+(I30*(Requerimientos!$M$13/100))+(J30*(Requerimientos!$M$14/100))+(K30*(Requerimientos!$M$15/100))+(L30*(Requerimientos!$M$16/100))+(M30*(Requerimientos!$M$17/100))+(N30*(Requerimientos!$M$18/100))+(O30*(Requerimientos!$M$19/100))+(P30*(Requerimientos!$M$20/100))+(Q30*(Requerimientos!$M$21/100))+(R30*(Requerimientos!$M$22/100)))/2</f>
         <v>4.8</v>
       </c>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="50">
+      <c r="B31" s="51">
         <v>12</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="52"/>
+      <c r="D31" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="11">
+      <c r="F31" s="28">
+        <v>10</v>
+      </c>
+      <c r="G31" s="28">
+        <v>10</v>
+      </c>
+      <c r="H31" s="28">
+        <v>10</v>
+      </c>
+      <c r="I31" s="28">
+        <v>10</v>
+      </c>
+      <c r="J31" s="28">
+        <v>10</v>
+      </c>
+      <c r="K31" s="28">
+        <v>10</v>
+      </c>
+      <c r="L31" s="28">
+        <v>10</v>
+      </c>
+      <c r="M31" s="28">
+        <v>10</v>
+      </c>
+      <c r="N31" s="28">
+        <v>10</v>
+      </c>
+      <c r="O31" s="28">
+        <v>10</v>
+      </c>
+      <c r="P31" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="28">
+        <v>6</v>
+      </c>
+      <c r="R31" s="28">
+        <v>10</v>
+      </c>
+      <c r="S31" s="10">
         <f>((F31*(Requerimientos!$M$10/100))+(G31*(Requerimientos!$M$11/100))+(H31*(Requerimientos!$M$12/100))+(I31*(Requerimientos!$M$13/100))+(J31*(Requerimientos!$M$14/100))+(K31*(Requerimientos!$M$15/100))+(L31*(Requerimientos!$M$16/100))+(M31*(Requerimientos!$M$17/100))+(N31*(Requerimientos!$M$18/100))+(O31*(Requerimientos!$M$19/100))+(P31*(Requerimientos!$M$20/100))+(Q31*(Requerimientos!$M$21/100))+(R31*(Requerimientos!$M$22/100)))/2</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
+        <v>4.8</v>
+      </c>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B32" s="48">
+      <c r="B32" s="49">
         <v>11</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="50"/>
+      <c r="D32" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>138</v>
       </c>
       <c r="F32" s="2">
@@ -12580,26 +12547,26 @@
       <c r="R32" s="2">
         <v>1</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S32" s="10">
         <f>((F32*(Requerimientos!$M$10/100))+(G32*(Requerimientos!$M$11/100))+(H32*(Requerimientos!$M$12/100))+(I32*(Requerimientos!$M$13/100))+(J32*(Requerimientos!$M$14/100))+(K32*(Requerimientos!$M$15/100))+(L32*(Requerimientos!$M$16/100))+(M32*(Requerimientos!$M$17/100))+(N32*(Requerimientos!$M$18/100))+(O32*(Requerimientos!$M$19/100))+(P32*(Requerimientos!$M$20/100))+(Q32*(Requerimientos!$M$21/100))+(R32*(Requerimientos!$M$22/100)))/2</f>
         <v>3.4750000000000001</v>
       </c>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B33" s="48">
+      <c r="B33" s="49">
         <v>7</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="18" t="s">
+      <c r="C33" s="50"/>
+      <c r="D33" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>140</v>
       </c>
       <c r="F33" s="2">
@@ -12641,26 +12608,26 @@
       <c r="R33" s="2">
         <v>8</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="10">
         <f>((F33*(Requerimientos!$M$10/100))+(G33*(Requerimientos!$M$11/100))+(H33*(Requerimientos!$M$12/100))+(I33*(Requerimientos!$M$13/100))+(J33*(Requerimientos!$M$14/100))+(K33*(Requerimientos!$M$15/100))+(L33*(Requerimientos!$M$16/100))+(M33*(Requerimientos!$M$17/100))+(N33*(Requerimientos!$M$18/100))+(O33*(Requerimientos!$M$19/100))+(P33*(Requerimientos!$M$20/100))+(Q33*(Requerimientos!$M$21/100))+(R33*(Requerimientos!$M$22/100)))/2</f>
         <v>4.8</v>
       </c>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B34" s="48">
+      <c r="B34" s="49">
         <v>6</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="18" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>142</v>
       </c>
       <c r="F34" s="2">
@@ -12702,26 +12669,26 @@
       <c r="R34" s="2">
         <v>10</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="10">
         <f>((F34*(Requerimientos!$M$10/100))+(G34*(Requerimientos!$M$11/100))+(H34*(Requerimientos!$M$12/100))+(I34*(Requerimientos!$M$13/100))+(J34*(Requerimientos!$M$14/100))+(K34*(Requerimientos!$M$15/100))+(L34*(Requerimientos!$M$16/100))+(M34*(Requerimientos!$M$17/100))+(N34*(Requerimientos!$M$18/100))+(O34*(Requerimientos!$M$19/100))+(P34*(Requerimientos!$M$20/100))+(Q34*(Requerimientos!$M$21/100))+(R34*(Requerimientos!$M$22/100)))/2</f>
         <v>4.7249999999999996</v>
       </c>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B35" s="48">
+      <c r="B35" s="49">
         <v>5</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="18" t="s">
+      <c r="C35" s="50"/>
+      <c r="D35" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>144</v>
       </c>
       <c r="F35" s="2">
@@ -12763,26 +12730,26 @@
       <c r="R35" s="2">
         <v>2</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S35" s="10">
         <f>((F35*(Requerimientos!$M$10/100))+(G35*(Requerimientos!$M$11/100))+(H35*(Requerimientos!$M$12/100))+(I35*(Requerimientos!$M$13/100))+(J35*(Requerimientos!$M$14/100))+(K35*(Requerimientos!$M$15/100))+(L35*(Requerimientos!$M$16/100))+(M35*(Requerimientos!$M$17/100))+(N35*(Requerimientos!$M$18/100))+(O35*(Requerimientos!$M$19/100))+(P35*(Requerimientos!$M$20/100))+(Q35*(Requerimientos!$M$21/100))+(R35*(Requerimientos!$M$22/100)))/2</f>
         <v>3</v>
       </c>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B36" s="48">
+      <c r="B36" s="49">
         <v>4</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="18" t="s">
+      <c r="C36" s="50"/>
+      <c r="D36" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>146</v>
       </c>
       <c r="F36" s="2">
@@ -12824,61 +12791,87 @@
       <c r="R36" s="2">
         <v>2</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S36" s="10">
         <f>((F36*(Requerimientos!$M$10/100))+(G36*(Requerimientos!$M$11/100))+(H36*(Requerimientos!$M$12/100))+(I36*(Requerimientos!$M$13/100))+(J36*(Requerimientos!$M$14/100))+(K36*(Requerimientos!$M$15/100))+(L36*(Requerimientos!$M$16/100))+(M36*(Requerimientos!$M$17/100))+(N36*(Requerimientos!$M$18/100))+(O36*(Requerimientos!$M$19/100))+(P36*(Requerimientos!$M$20/100))+(Q36*(Requerimientos!$M$21/100))+(R36*(Requerimientos!$M$22/100)))/2</f>
         <v>3.95</v>
       </c>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B37" s="50">
+      <c r="B37" s="51">
         <v>12</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="18" t="s">
+      <c r="C37" s="52"/>
+      <c r="D37" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="11">
+      <c r="F37" s="28">
+        <v>10</v>
+      </c>
+      <c r="G37" s="28">
+        <v>10</v>
+      </c>
+      <c r="H37" s="28">
+        <v>10</v>
+      </c>
+      <c r="I37" s="28">
+        <v>10</v>
+      </c>
+      <c r="J37" s="28">
+        <v>10</v>
+      </c>
+      <c r="K37" s="28">
+        <v>10</v>
+      </c>
+      <c r="L37" s="28">
+        <v>10</v>
+      </c>
+      <c r="M37" s="28">
+        <v>10</v>
+      </c>
+      <c r="N37" s="28">
+        <v>10</v>
+      </c>
+      <c r="O37" s="28">
+        <v>10</v>
+      </c>
+      <c r="P37" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="28">
+        <v>6</v>
+      </c>
+      <c r="R37" s="28">
+        <v>10</v>
+      </c>
+      <c r="S37" s="10">
         <f>((F37*(Requerimientos!$M$10/100))+(G37*(Requerimientos!$M$11/100))+(H37*(Requerimientos!$M$12/100))+(I37*(Requerimientos!$M$13/100))+(J37*(Requerimientos!$M$14/100))+(K37*(Requerimientos!$M$15/100))+(L37*(Requerimientos!$M$16/100))+(M37*(Requerimientos!$M$17/100))+(N37*(Requerimientos!$M$18/100))+(O37*(Requerimientos!$M$19/100))+(P37*(Requerimientos!$M$20/100))+(Q37*(Requerimientos!$M$21/100))+(R37*(Requerimientos!$M$22/100)))/2</f>
-        <v>0</v>
-      </c>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
+        <v>4.8</v>
+      </c>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B38" s="48">
+      <c r="B38" s="49">
         <v>5</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="50"/>
+      <c r="D38" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>150</v>
       </c>
       <c r="F38" s="2">
@@ -12920,26 +12913,26 @@
       <c r="R38" s="2">
         <v>2</v>
       </c>
-      <c r="S38" s="11">
+      <c r="S38" s="10">
         <f>((F38*(Requerimientos!$M$10/100))+(G38*(Requerimientos!$M$11/100))+(H38*(Requerimientos!$M$12/100))+(I38*(Requerimientos!$M$13/100))+(J38*(Requerimientos!$M$14/100))+(K38*(Requerimientos!$M$15/100))+(L38*(Requerimientos!$M$16/100))+(M38*(Requerimientos!$M$17/100))+(N38*(Requerimientos!$M$18/100))+(O38*(Requerimientos!$M$19/100))+(P38*(Requerimientos!$M$20/100))+(Q38*(Requerimientos!$M$21/100))+(R38*(Requerimientos!$M$22/100)))/2</f>
         <v>3</v>
       </c>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B39" s="48">
+      <c r="B39" s="49">
         <v>5</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="50"/>
+      <c r="D39" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>140</v>
       </c>
       <c r="F39" s="2">
@@ -12981,26 +12974,26 @@
       <c r="R39" s="2">
         <v>2</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S39" s="10">
         <f>((F39*(Requerimientos!$M$10/100))+(G39*(Requerimientos!$M$11/100))+(H39*(Requerimientos!$M$12/100))+(I39*(Requerimientos!$M$13/100))+(J39*(Requerimientos!$M$14/100))+(K39*(Requerimientos!$M$15/100))+(L39*(Requerimientos!$M$16/100))+(M39*(Requerimientos!$M$17/100))+(N39*(Requerimientos!$M$18/100))+(O39*(Requerimientos!$M$19/100))+(P39*(Requerimientos!$M$20/100))+(Q39*(Requerimientos!$M$21/100))+(R39*(Requerimientos!$M$22/100)))/2</f>
         <v>3</v>
       </c>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B40" s="48">
+      <c r="B40" s="49">
         <v>2</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="18" t="s">
+      <c r="C40" s="50"/>
+      <c r="D40" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>153</v>
       </c>
       <c r="F40" s="5">
@@ -13042,26 +13035,26 @@
       <c r="R40" s="2">
         <v>0</v>
       </c>
-      <c r="S40" s="11">
+      <c r="S40" s="10">
         <f>((F40*(Requerimientos!$M$10/100))+(G40*(Requerimientos!$M$11/100))+(H40*(Requerimientos!$M$12/100))+(I40*(Requerimientos!$M$13/100))+(J40*(Requerimientos!$M$14/100))+(K40*(Requerimientos!$M$15/100))+(L40*(Requerimientos!$M$16/100))+(M40*(Requerimientos!$M$17/100))+(N40*(Requerimientos!$M$18/100))+(O40*(Requerimientos!$M$19/100))+(P40*(Requerimientos!$M$20/100))+(Q40*(Requerimientos!$M$21/100))+(R40*(Requerimientos!$M$22/100)))/2</f>
         <v>3.5</v>
       </c>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B41" s="45">
+      <c r="B41" s="46">
         <v>1</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="20" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>144</v>
       </c>
       <c r="F41" s="5">
@@ -13103,38 +13096,38 @@
       <c r="R41" s="2">
         <v>8</v>
       </c>
-      <c r="S41" s="21">
+      <c r="S41" s="20">
         <f>((F41*(Requerimientos!$M$10/100))+(G41*(Requerimientos!$M$11/100))+(H41*(Requerimientos!$M$12/100))+(I41*(Requerimientos!$M$13/100))+(J41*(Requerimientos!$M$14/100))+(K41*(Requerimientos!$M$15/100))+(L41*(Requerimientos!$M$16/100))+(M41*(Requerimientos!$M$17/100))+(N41*(Requerimientos!$M$18/100))+(O41*(Requerimientos!$M$19/100))+(P41*(Requerimientos!$M$20/100))+(Q41*(Requerimientos!$M$21/100))+(R41*(Requerimientos!$M$22/100)))/2</f>
         <v>4.5250000000000004</v>
       </c>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
@@ -13143,8 +13136,8 @@
     <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -13169,8 +13162,8 @@
     <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -13195,8 +13188,8 @@
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -13221,8 +13214,8 @@
     <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -13247,8 +13240,8 @@
     <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -13273,8 +13266,8 @@
     <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -13299,8 +13292,8 @@
     <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -13325,8 +13318,8 @@
     <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -13351,8 +13344,8 @@
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -13377,8 +13370,8 @@
     <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -13403,8 +13396,8 @@
     <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -13429,8 +13422,8 @@
     <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -13455,8 +13448,8 @@
     <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -13481,8 +13474,8 @@
     <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -13507,8 +13500,8 @@
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -13533,8 +13526,8 @@
     <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -13559,8 +13552,8 @@
     <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -13585,8 +13578,8 @@
     <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -13611,8 +13604,8 @@
     <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -13637,8 +13630,8 @@
     <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -13663,8 +13656,8 @@
     <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -13689,8 +13682,8 @@
     <row r="64" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -13715,8 +13708,8 @@
     <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -13741,8 +13734,8 @@
     <row r="66" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -13767,8 +13760,8 @@
     <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -13793,8 +13786,8 @@
     <row r="68" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -13819,8 +13812,8 @@
     <row r="69" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -13845,8 +13838,8 @@
     <row r="70" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -13871,8 +13864,8 @@
     <row r="71" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -13897,8 +13890,8 @@
     <row r="72" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -13923,8 +13916,8 @@
     <row r="73" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -13949,8 +13942,8 @@
     <row r="74" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -13975,8 +13968,8 @@
     <row r="75" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -14001,8 +13994,8 @@
     <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -14027,8 +14020,8 @@
     <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -14053,8 +14046,8 @@
     <row r="78" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -14079,8 +14072,8 @@
     <row r="79" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -14105,8 +14098,8 @@
     <row r="80" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -14131,8 +14124,8 @@
     <row r="81" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -14157,8 +14150,8 @@
     <row r="82" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -14183,8 +14176,8 @@
     <row r="83" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -14209,8 +14202,8 @@
     <row r="84" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -14235,8 +14228,8 @@
     <row r="85" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -14261,8 +14254,8 @@
     <row r="86" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -14287,8 +14280,8 @@
     <row r="87" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -14313,8 +14306,8 @@
     <row r="88" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -14339,8 +14332,8 @@
     <row r="89" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -14365,8 +14358,8 @@
     <row r="90" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -14391,8 +14384,8 @@
     <row r="91" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -14417,8 +14410,8 @@
     <row r="92" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -14443,8 +14436,8 @@
     <row r="93" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -14469,8 +14462,8 @@
     <row r="94" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -14495,8 +14488,8 @@
     <row r="95" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -14521,8 +14514,8 @@
     <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -14547,8 +14540,8 @@
     <row r="97" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -14573,8 +14566,8 @@
     <row r="98" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -14599,8 +14592,8 @@
     <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -14625,8 +14618,8 @@
     <row r="100" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -14651,8 +14644,8 @@
     <row r="101" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -14677,8 +14670,8 @@
     <row r="102" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -14703,8 +14696,8 @@
     <row r="103" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -14729,8 +14722,8 @@
     <row r="104" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -14755,8 +14748,8 @@
     <row r="105" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -14781,8 +14774,8 @@
     <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -14807,8 +14800,8 @@
     <row r="107" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -14833,8 +14826,8 @@
     <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -14859,8 +14852,8 @@
     <row r="109" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -14885,8 +14878,8 @@
     <row r="110" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -14911,8 +14904,8 @@
     <row r="111" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -14937,8 +14930,8 @@
     <row r="112" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -14963,8 +14956,8 @@
     <row r="113" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -17547,26 +17540,26 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -17576,24 +17569,24 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="34"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="35"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -17603,24 +17596,24 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="37"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="38"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -17630,26 +17623,26 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -17659,24 +17652,24 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -17686,26 +17679,26 @@
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -17742,56 +17735,56 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="14" t="s">
         <v>34</v>
       </c>
       <c r="T9" s="1"/>
@@ -17803,60 +17796,60 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="60">
+      <c r="B10" s="59">
         <v>9</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>0</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>0</v>
       </c>
-      <c r="I10" s="12">
-        <v>10</v>
-      </c>
-      <c r="J10" s="12">
-        <v>10</v>
-      </c>
-      <c r="K10" s="12">
-        <v>10</v>
-      </c>
-      <c r="L10" s="12">
-        <v>10</v>
-      </c>
-      <c r="M10" s="12">
-        <v>10</v>
-      </c>
-      <c r="N10" s="12">
+      <c r="I10" s="11">
+        <v>10</v>
+      </c>
+      <c r="J10" s="11">
+        <v>10</v>
+      </c>
+      <c r="K10" s="11">
+        <v>10</v>
+      </c>
+      <c r="L10" s="11">
+        <v>10</v>
+      </c>
+      <c r="M10" s="11">
+        <v>10</v>
+      </c>
+      <c r="N10" s="11">
         <v>7</v>
       </c>
-      <c r="O10" s="12">
-        <v>10</v>
-      </c>
-      <c r="P10" s="12">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>10</v>
-      </c>
-      <c r="R10" s="12">
+      <c r="O10" s="11">
+        <v>10</v>
+      </c>
+      <c r="P10" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>10</v>
+      </c>
+      <c r="R10" s="11">
         <v>0</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S10" s="24">
         <f>((F10*(Requerimientos!$M$10/100))+(G10*(Requerimientos!$M$11/100))+(H10*(Requerimientos!$M$12/100))+(I10*(Requerimientos!$M$13/100))+(J10*(Requerimientos!$M$14/100))+(K10*(Requerimientos!$M$15/100))+(L10*(Requerimientos!$M$16/100))+(M10*(Requerimientos!$M$17/100))+(N10*(Requerimientos!$M$18/100))+(O10*(Requerimientos!$M$19/100))+(P10*(Requerimientos!$M$20/100))+(Q10*(Requerimientos!$M$21/100))+(R10*(Requerimientos!$M$22/100)))/2</f>
         <v>2.85</v>
       </c>
-      <c r="T10" s="24"/>
+      <c r="T10" s="23"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -17865,14 +17858,14 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="56">
+      <c r="B11" s="51">
         <v>4</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="5">
@@ -17914,11 +17907,11 @@
       <c r="R11" s="2">
         <v>10</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="10">
         <f>((F11*(Requerimientos!$M$10/100))+(G11*(Requerimientos!$M$11/100))+(H11*(Requerimientos!$M$12/100))+(I11*(Requerimientos!$M$13/100))+(J11*(Requerimientos!$M$14/100))+(K11*(Requerimientos!$M$15/100))+(L11*(Requerimientos!$M$16/100))+(M11*(Requerimientos!$M$17/100))+(N11*(Requerimientos!$M$18/100))+(O11*(Requerimientos!$M$19/100))+(P11*(Requerimientos!$M$20/100))+(Q11*(Requerimientos!$M$21/100))+(R11*(Requerimientos!$M$22/100)))/2</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="T11" s="24"/>
+      <c r="T11" s="23"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -17927,14 +17920,14 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="56">
+      <c r="B12" s="51">
         <v>5</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="2">
@@ -17976,11 +17969,11 @@
       <c r="R12" s="2">
         <v>10</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="10">
         <f>((F12*(Requerimientos!$M$10/100))+(G12*(Requerimientos!$M$11/100))+(H12*(Requerimientos!$M$12/100))+(I12*(Requerimientos!$M$13/100))+(J12*(Requerimientos!$M$14/100))+(K12*(Requerimientos!$M$15/100))+(L12*(Requerimientos!$M$16/100))+(M12*(Requerimientos!$M$17/100))+(N12*(Requerimientos!$M$18/100))+(O12*(Requerimientos!$M$19/100))+(P12*(Requerimientos!$M$20/100))+(Q12*(Requerimientos!$M$21/100))+(R12*(Requerimientos!$M$22/100)))/2</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="T12" s="24"/>
+      <c r="T12" s="23"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -17989,60 +17982,60 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="56">
+      <c r="B13" s="51">
         <v>9</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>0</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>0</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>0</v>
       </c>
-      <c r="I13" s="12">
-        <v>10</v>
-      </c>
-      <c r="J13" s="12">
-        <v>10</v>
-      </c>
-      <c r="K13" s="12">
-        <v>10</v>
-      </c>
-      <c r="L13" s="12">
-        <v>10</v>
-      </c>
-      <c r="M13" s="12">
-        <v>10</v>
-      </c>
-      <c r="N13" s="12">
+      <c r="I13" s="11">
+        <v>10</v>
+      </c>
+      <c r="J13" s="11">
+        <v>10</v>
+      </c>
+      <c r="K13" s="11">
+        <v>10</v>
+      </c>
+      <c r="L13" s="11">
+        <v>10</v>
+      </c>
+      <c r="M13" s="11">
+        <v>10</v>
+      </c>
+      <c r="N13" s="11">
         <v>7</v>
       </c>
-      <c r="O13" s="12">
-        <v>10</v>
-      </c>
-      <c r="P13" s="12">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>10</v>
-      </c>
-      <c r="R13" s="12">
+      <c r="O13" s="11">
+        <v>10</v>
+      </c>
+      <c r="P13" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>10</v>
+      </c>
+      <c r="R13" s="11">
         <v>0</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="10">
         <f>((F13*(Requerimientos!$M$10/100))+(G13*(Requerimientos!$M$11/100))+(H13*(Requerimientos!$M$12/100))+(I13*(Requerimientos!$M$13/100))+(J13*(Requerimientos!$M$14/100))+(K13*(Requerimientos!$M$15/100))+(L13*(Requerimientos!$M$16/100))+(M13*(Requerimientos!$M$17/100))+(N13*(Requerimientos!$M$18/100))+(O13*(Requerimientos!$M$19/100))+(P13*(Requerimientos!$M$20/100))+(Q13*(Requerimientos!$M$21/100))+(R13*(Requerimientos!$M$22/100)))/2</f>
         <v>2.85</v>
       </c>
-      <c r="T13" s="24"/>
+      <c r="T13" s="23"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -18051,14 +18044,14 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="56">
+      <c r="B14" s="51">
         <v>2</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="52"/>
+      <c r="D14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="5">
@@ -18100,11 +18093,11 @@
       <c r="R14" s="2">
         <v>10</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="10">
         <f>((F14*(Requerimientos!$M$10/100))+(G14*(Requerimientos!$M$11/100))+(H14*(Requerimientos!$M$12/100))+(I14*(Requerimientos!$M$13/100))+(J14*(Requerimientos!$M$14/100))+(K14*(Requerimientos!$M$15/100))+(L14*(Requerimientos!$M$16/100))+(M14*(Requerimientos!$M$17/100))+(N14*(Requerimientos!$M$18/100))+(O14*(Requerimientos!$M$19/100))+(P14*(Requerimientos!$M$20/100))+(Q14*(Requerimientos!$M$21/100))+(R14*(Requerimientos!$M$22/100)))/2</f>
         <v>4.625</v>
       </c>
-      <c r="T14" s="24"/>
+      <c r="T14" s="23"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -18113,14 +18106,14 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="56">
+      <c r="B15" s="51">
         <v>4</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="5">
@@ -18162,11 +18155,11 @@
       <c r="R15" s="2">
         <v>10</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="10">
         <f>((F15*(Requerimientos!$M$10/100))+(G15*(Requerimientos!$M$11/100))+(H15*(Requerimientos!$M$12/100))+(I15*(Requerimientos!$M$13/100))+(J15*(Requerimientos!$M$14/100))+(K15*(Requerimientos!$M$15/100))+(L15*(Requerimientos!$M$16/100))+(M15*(Requerimientos!$M$17/100))+(N15*(Requerimientos!$M$18/100))+(O15*(Requerimientos!$M$19/100))+(P15*(Requerimientos!$M$20/100))+(Q15*(Requerimientos!$M$21/100))+(R15*(Requerimientos!$M$22/100)))/2</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="T15" s="24"/>
+      <c r="T15" s="23"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -18175,14 +18168,14 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="56">
+      <c r="B16" s="51">
         <v>12</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="5">
@@ -18224,11 +18217,11 @@
       <c r="R16" s="2">
         <v>2</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="10">
         <f>((F16*(Requerimientos!$M$10/100))+(G16*(Requerimientos!$M$11/100))+(H16*(Requerimientos!$M$12/100))+(I16*(Requerimientos!$M$13/100))+(J16*(Requerimientos!$M$14/100))+(K16*(Requerimientos!$M$15/100))+(L16*(Requerimientos!$M$16/100))+(M16*(Requerimientos!$M$17/100))+(N16*(Requerimientos!$M$18/100))+(O16*(Requerimientos!$M$19/100))+(P16*(Requerimientos!$M$20/100))+(Q16*(Requerimientos!$M$21/100))+(R16*(Requerimientos!$M$22/100)))/2</f>
         <v>4.05</v>
       </c>
-      <c r="T16" s="24"/>
+      <c r="T16" s="23"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -18237,14 +18230,14 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="58">
+      <c r="B17" s="57">
         <v>11</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="5">
@@ -18286,11 +18279,11 @@
       <c r="R17" s="2">
         <v>10</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="10">
         <f>((F17*(Requerimientos!$M$10/100))+(G17*(Requerimientos!$M$11/100))+(H17*(Requerimientos!$M$12/100))+(I17*(Requerimientos!$M$13/100))+(J17*(Requerimientos!$M$14/100))+(K17*(Requerimientos!$M$15/100))+(L17*(Requerimientos!$M$16/100))+(M17*(Requerimientos!$M$17/100))+(N17*(Requerimientos!$M$18/100))+(O17*(Requerimientos!$M$19/100))+(P17*(Requerimientos!$M$20/100))+(Q17*(Requerimientos!$M$21/100))+(R17*(Requerimientos!$M$22/100)))/2</f>
         <v>4.9249999999999998</v>
       </c>
-      <c r="T17" s="24"/>
+      <c r="T17" s="23"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -18299,14 +18292,14 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="56">
+      <c r="B18" s="51">
         <v>4</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="5">
@@ -18348,11 +18341,11 @@
       <c r="R18" s="2">
         <v>10</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="10">
         <f>((F18*(Requerimientos!$M$10/100))+(G18*(Requerimientos!$M$11/100))+(H18*(Requerimientos!$M$12/100))+(I18*(Requerimientos!$M$13/100))+(J18*(Requerimientos!$M$14/100))+(K18*(Requerimientos!$M$15/100))+(L18*(Requerimientos!$M$16/100))+(M18*(Requerimientos!$M$17/100))+(N18*(Requerimientos!$M$18/100))+(O18*(Requerimientos!$M$19/100))+(P18*(Requerimientos!$M$20/100))+(Q18*(Requerimientos!$M$21/100))+(R18*(Requerimientos!$M$22/100)))/2</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="T18" s="24"/>
+      <c r="T18" s="23"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -18361,14 +18354,14 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="56">
+      <c r="B19" s="51">
         <v>1</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="2">
@@ -18410,11 +18403,11 @@
       <c r="R19" s="2">
         <v>10</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="10">
         <f>((F19*(Requerimientos!$M$10/100))+(G19*(Requerimientos!$M$11/100))+(H19*(Requerimientos!$M$12/100))+(I19*(Requerimientos!$M$13/100))+(J19*(Requerimientos!$M$14/100))+(K19*(Requerimientos!$M$15/100))+(L19*(Requerimientos!$M$16/100))+(M19*(Requerimientos!$M$17/100))+(N19*(Requerimientos!$M$18/100))+(O19*(Requerimientos!$M$19/100))+(P19*(Requerimientos!$M$20/100))+(Q19*(Requerimientos!$M$21/100))+(R19*(Requerimientos!$M$22/100)))/2</f>
         <v>5</v>
       </c>
-      <c r="T19" s="24"/>
+      <c r="T19" s="23"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -18423,12 +18416,12 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="18" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F20" s="5">
@@ -18470,11 +18463,11 @@
       <c r="R20" s="2">
         <v>0</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="10">
         <f>((F20*(Requerimientos!$M$10/100))+(G20*(Requerimientos!$M$11/100))+(H20*(Requerimientos!$M$12/100))+(I20*(Requerimientos!$M$13/100))+(J20*(Requerimientos!$M$14/100))+(K20*(Requerimientos!$M$15/100))+(L20*(Requerimientos!$M$16/100))+(M20*(Requerimientos!$M$17/100))+(N20*(Requerimientos!$M$18/100))+(O20*(Requerimientos!$M$19/100))+(P20*(Requerimientos!$M$20/100))+(Q20*(Requerimientos!$M$21/100))+(R20*(Requerimientos!$M$22/100)))/2</f>
         <v>1.2250000000000001</v>
       </c>
-      <c r="T20" s="24"/>
+      <c r="T20" s="23"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -18483,14 +18476,14 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="56">
+      <c r="B21" s="51">
         <v>12</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="5">
@@ -18532,11 +18525,11 @@
       <c r="R21" s="2">
         <v>2</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="10">
         <f>((F21*(Requerimientos!$M$10/100))+(G21*(Requerimientos!$M$11/100))+(H21*(Requerimientos!$M$12/100))+(I21*(Requerimientos!$M$13/100))+(J21*(Requerimientos!$M$14/100))+(K21*(Requerimientos!$M$15/100))+(L21*(Requerimientos!$M$16/100))+(M21*(Requerimientos!$M$17/100))+(N21*(Requerimientos!$M$18/100))+(O21*(Requerimientos!$M$19/100))+(P21*(Requerimientos!$M$20/100))+(Q21*(Requerimientos!$M$21/100))+(R21*(Requerimientos!$M$22/100)))/2</f>
         <v>4.05</v>
       </c>
-      <c r="T21" s="24"/>
+      <c r="T21" s="23"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -18545,14 +18538,14 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="56">
+      <c r="B22" s="51">
         <v>3</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="52"/>
+      <c r="D22" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>63</v>
       </c>
       <c r="F22" s="2">
@@ -18594,11 +18587,11 @@
       <c r="R22" s="2">
         <v>0</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22" s="10">
         <f>((F22*(Requerimientos!$M$10/100))+(G22*(Requerimientos!$M$11/100))+(H22*(Requerimientos!$M$12/100))+(I22*(Requerimientos!$M$13/100))+(J22*(Requerimientos!$M$14/100))+(K22*(Requerimientos!$M$15/100))+(L22*(Requerimientos!$M$16/100))+(M22*(Requerimientos!$M$17/100))+(N22*(Requerimientos!$M$18/100))+(O22*(Requerimientos!$M$19/100))+(P22*(Requerimientos!$M$20/100))+(Q22*(Requerimientos!$M$21/100))+(R22*(Requerimientos!$M$22/100)))/2</f>
         <v>3.1999999999999997</v>
       </c>
-      <c r="T22" s="24"/>
+      <c r="T22" s="23"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -18607,60 +18600,60 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="56">
+      <c r="B23" s="51">
         <v>8</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="10">
-        <v>10</v>
-      </c>
-      <c r="G23" s="10">
-        <v>10</v>
-      </c>
-      <c r="H23" s="10">
-        <v>8</v>
-      </c>
-      <c r="I23" s="10">
-        <v>10</v>
-      </c>
-      <c r="J23" s="10">
-        <v>10</v>
-      </c>
-      <c r="K23" s="10">
-        <v>8</v>
-      </c>
-      <c r="L23" s="2">
-        <v>10</v>
-      </c>
-      <c r="M23" s="2">
-        <v>10</v>
-      </c>
-      <c r="N23" s="2">
-        <v>7</v>
-      </c>
-      <c r="O23" s="2">
-        <v>10</v>
-      </c>
-      <c r="P23" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>10</v>
-      </c>
-      <c r="R23" s="2">
+      <c r="F23" s="29">
+        <v>10</v>
+      </c>
+      <c r="G23" s="29">
+        <v>10</v>
+      </c>
+      <c r="H23" s="29">
+        <v>10</v>
+      </c>
+      <c r="I23" s="29">
+        <v>10</v>
+      </c>
+      <c r="J23" s="29">
+        <v>10</v>
+      </c>
+      <c r="K23" s="29">
+        <v>10</v>
+      </c>
+      <c r="L23" s="28">
+        <v>10</v>
+      </c>
+      <c r="M23" s="28">
+        <v>10</v>
+      </c>
+      <c r="N23" s="28">
+        <v>10</v>
+      </c>
+      <c r="O23" s="28">
+        <v>10</v>
+      </c>
+      <c r="P23" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>10</v>
+      </c>
+      <c r="R23" s="28">
         <v>2</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23" s="10">
         <f>((F23*(Requerimientos!$M$10/100))+(G23*(Requerimientos!$M$11/100))+(H23*(Requerimientos!$M$12/100))+(I23*(Requerimientos!$M$13/100))+(J23*(Requerimientos!$M$14/100))+(K23*(Requerimientos!$M$15/100))+(L23*(Requerimientos!$M$16/100))+(M23*(Requerimientos!$M$17/100))+(N23*(Requerimientos!$M$18/100))+(O23*(Requerimientos!$M$19/100))+(P23*(Requerimientos!$M$20/100))+(Q23*(Requerimientos!$M$21/100))+(R23*(Requerimientos!$M$22/100)))/2</f>
-        <v>3.85</v>
-      </c>
-      <c r="T23" s="24"/>
+        <v>4.2</v>
+      </c>
+      <c r="T23" s="23"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -18669,60 +18662,60 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="56">
+      <c r="B24" s="51">
         <v>8</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="52"/>
+      <c r="D24" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="10">
-        <v>10</v>
-      </c>
-      <c r="G24" s="10">
-        <v>10</v>
-      </c>
-      <c r="H24" s="10">
-        <v>8</v>
-      </c>
-      <c r="I24" s="10">
-        <v>10</v>
-      </c>
-      <c r="J24" s="10">
-        <v>10</v>
-      </c>
-      <c r="K24" s="10">
-        <v>8</v>
-      </c>
-      <c r="L24" s="2">
-        <v>10</v>
-      </c>
-      <c r="M24" s="2">
-        <v>10</v>
-      </c>
-      <c r="N24" s="2">
-        <v>7</v>
-      </c>
-      <c r="O24" s="2">
-        <v>10</v>
-      </c>
-      <c r="P24" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>10</v>
-      </c>
-      <c r="R24" s="2">
+      <c r="F24" s="29">
+        <v>10</v>
+      </c>
+      <c r="G24" s="29">
+        <v>10</v>
+      </c>
+      <c r="H24" s="29">
+        <v>10</v>
+      </c>
+      <c r="I24" s="29">
+        <v>10</v>
+      </c>
+      <c r="J24" s="29">
+        <v>10</v>
+      </c>
+      <c r="K24" s="29">
+        <v>10</v>
+      </c>
+      <c r="L24" s="28">
+        <v>10</v>
+      </c>
+      <c r="M24" s="28">
+        <v>10</v>
+      </c>
+      <c r="N24" s="28">
+        <v>10</v>
+      </c>
+      <c r="O24" s="28">
+        <v>10</v>
+      </c>
+      <c r="P24" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="28">
+        <v>10</v>
+      </c>
+      <c r="R24" s="28">
         <v>2</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="10">
         <f>((F24*(Requerimientos!$M$10/100))+(G24*(Requerimientos!$M$11/100))+(H24*(Requerimientos!$M$12/100))+(I24*(Requerimientos!$M$13/100))+(J24*(Requerimientos!$M$14/100))+(K24*(Requerimientos!$M$15/100))+(L24*(Requerimientos!$M$16/100))+(M24*(Requerimientos!$M$17/100))+(N24*(Requerimientos!$M$18/100))+(O24*(Requerimientos!$M$19/100))+(P24*(Requerimientos!$M$20/100))+(Q24*(Requerimientos!$M$21/100))+(R24*(Requerimientos!$M$22/100)))/2</f>
-        <v>3.85</v>
-      </c>
-      <c r="T24" s="24"/>
+        <v>4.2</v>
+      </c>
+      <c r="T24" s="23"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -18731,12 +18724,12 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="18" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>67</v>
       </c>
       <c r="F25" s="2">
@@ -18778,11 +18771,11 @@
       <c r="R25" s="2">
         <v>0</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S25" s="10">
         <f>((F25*(Requerimientos!$M$10/100))+(G25*(Requerimientos!$M$11/100))+(H25*(Requerimientos!$M$12/100))+(I25*(Requerimientos!$M$13/100))+(J25*(Requerimientos!$M$14/100))+(K25*(Requerimientos!$M$15/100))+(L25*(Requerimientos!$M$16/100))+(M25*(Requerimientos!$M$17/100))+(N25*(Requerimientos!$M$18/100))+(O25*(Requerimientos!$M$19/100))+(P25*(Requerimientos!$M$20/100))+(Q25*(Requerimientos!$M$21/100))+(R25*(Requerimientos!$M$22/100)))/2</f>
         <v>2.7</v>
       </c>
-      <c r="T25" s="24"/>
+      <c r="T25" s="23"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -18791,14 +18784,14 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="56">
+      <c r="B26" s="51">
         <v>1</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>69</v>
       </c>
       <c r="F26" s="2">
@@ -18840,11 +18833,11 @@
       <c r="R26" s="2">
         <v>10</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="10">
         <f>((F26*(Requerimientos!$M$10/100))+(G26*(Requerimientos!$M$11/100))+(H26*(Requerimientos!$M$12/100))+(I26*(Requerimientos!$M$13/100))+(J26*(Requerimientos!$M$14/100))+(K26*(Requerimientos!$M$15/100))+(L26*(Requerimientos!$M$16/100))+(M26*(Requerimientos!$M$17/100))+(N26*(Requerimientos!$M$18/100))+(O26*(Requerimientos!$M$19/100))+(P26*(Requerimientos!$M$20/100))+(Q26*(Requerimientos!$M$21/100))+(R26*(Requerimientos!$M$22/100)))/2</f>
         <v>5</v>
       </c>
-      <c r="T26" s="24"/>
+      <c r="T26" s="23"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -18853,14 +18846,14 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="56">
+      <c r="B27" s="51">
         <v>7</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="2">
@@ -18902,11 +18895,11 @@
       <c r="R27" s="2">
         <v>6</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S27" s="10">
         <f>((F27*(Requerimientos!$M$10/100))+(G27*(Requerimientos!$M$11/100))+(H27*(Requerimientos!$M$12/100))+(I27*(Requerimientos!$M$13/100))+(J27*(Requerimientos!$M$14/100))+(K27*(Requerimientos!$M$15/100))+(L27*(Requerimientos!$M$16/100))+(M27*(Requerimientos!$M$17/100))+(N27*(Requerimientos!$M$18/100))+(O27*(Requerimientos!$M$19/100))+(P27*(Requerimientos!$M$20/100))+(Q27*(Requerimientos!$M$21/100))+(R27*(Requerimientos!$M$22/100)))/2</f>
         <v>4.5250000000000004</v>
       </c>
-      <c r="T27" s="24"/>
+      <c r="T27" s="23"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
@@ -18915,14 +18908,14 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="56">
-        <v>10</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="18" t="s">
+      <c r="B28" s="51">
+        <v>10</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>73</v>
       </c>
       <c r="F28" s="2">
@@ -18964,11 +18957,11 @@
       <c r="R28" s="2">
         <v>0</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S28" s="10">
         <f>((F28*(Requerimientos!$M$10/100))+(G28*(Requerimientos!$M$11/100))+(H28*(Requerimientos!$M$12/100))+(I28*(Requerimientos!$M$13/100))+(J28*(Requerimientos!$M$14/100))+(K28*(Requerimientos!$M$15/100))+(L28*(Requerimientos!$M$16/100))+(M28*(Requerimientos!$M$17/100))+(N28*(Requerimientos!$M$18/100))+(O28*(Requerimientos!$M$19/100))+(P28*(Requerimientos!$M$20/100))+(Q28*(Requerimientos!$M$21/100))+(R28*(Requerimientos!$M$22/100)))/2</f>
         <v>2.7</v>
       </c>
-      <c r="T28" s="24"/>
+      <c r="T28" s="23"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
@@ -18977,14 +18970,14 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="56">
+      <c r="B29" s="51">
         <v>2</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="18" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F29" s="5">
@@ -19026,11 +19019,11 @@
       <c r="R29" s="2">
         <v>10</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S29" s="10">
         <f>((F29*(Requerimientos!$M$10/100))+(G29*(Requerimientos!$M$11/100))+(H29*(Requerimientos!$M$12/100))+(I29*(Requerimientos!$M$13/100))+(J29*(Requerimientos!$M$14/100))+(K29*(Requerimientos!$M$15/100))+(L29*(Requerimientos!$M$16/100))+(M29*(Requerimientos!$M$17/100))+(N29*(Requerimientos!$M$18/100))+(O29*(Requerimientos!$M$19/100))+(P29*(Requerimientos!$M$20/100))+(Q29*(Requerimientos!$M$21/100))+(R29*(Requerimientos!$M$22/100)))/2</f>
         <v>4.625</v>
       </c>
-      <c r="T29" s="24"/>
+      <c r="T29" s="23"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -19039,14 +19032,14 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="56">
+      <c r="B30" s="51">
         <v>6</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="18" t="s">
+      <c r="C30" s="52"/>
+      <c r="D30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>76</v>
       </c>
       <c r="F30" s="2">
@@ -19088,11 +19081,11 @@
       <c r="R30" s="2">
         <v>10</v>
       </c>
-      <c r="S30" s="11">
+      <c r="S30" s="10">
         <f>((F30*(Requerimientos!$M$10/100))+(G30*(Requerimientos!$M$11/100))+(H30*(Requerimientos!$M$12/100))+(I30*(Requerimientos!$M$13/100))+(J30*(Requerimientos!$M$14/100))+(K30*(Requerimientos!$M$15/100))+(L30*(Requerimientos!$M$16/100))+(M30*(Requerimientos!$M$17/100))+(N30*(Requerimientos!$M$18/100))+(O30*(Requerimientos!$M$19/100))+(P30*(Requerimientos!$M$20/100))+(Q30*(Requerimientos!$M$21/100))+(R30*(Requerimientos!$M$22/100)))/2</f>
         <v>5</v>
       </c>
-      <c r="T30" s="24"/>
+      <c r="T30" s="23"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
@@ -19101,14 +19094,14 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="56">
-        <v>10</v>
-      </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="18" t="s">
+      <c r="B31" s="51">
+        <v>10</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>78</v>
       </c>
       <c r="F31" s="2">
@@ -19150,11 +19143,11 @@
       <c r="R31" s="2">
         <v>0</v>
       </c>
-      <c r="S31" s="11">
+      <c r="S31" s="10">
         <f>((F31*(Requerimientos!$M$10/100))+(G31*(Requerimientos!$M$11/100))+(H31*(Requerimientos!$M$12/100))+(I31*(Requerimientos!$M$13/100))+(J31*(Requerimientos!$M$14/100))+(K31*(Requerimientos!$M$15/100))+(L31*(Requerimientos!$M$16/100))+(M31*(Requerimientos!$M$17/100))+(N31*(Requerimientos!$M$18/100))+(O31*(Requerimientos!$M$19/100))+(P31*(Requerimientos!$M$20/100))+(Q31*(Requerimientos!$M$21/100))+(R31*(Requerimientos!$M$22/100)))/2</f>
         <v>2.7</v>
       </c>
-      <c r="T31" s="24"/>
+      <c r="T31" s="23"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -19163,14 +19156,14 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="56">
+      <c r="B32" s="51">
         <v>3</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F32" s="2">
@@ -19212,11 +19205,11 @@
       <c r="R32" s="2">
         <v>0</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S32" s="10">
         <f>((F32*(Requerimientos!$M$10/100))+(G32*(Requerimientos!$M$11/100))+(H32*(Requerimientos!$M$12/100))+(I32*(Requerimientos!$M$13/100))+(J32*(Requerimientos!$M$14/100))+(K32*(Requerimientos!$M$15/100))+(L32*(Requerimientos!$M$16/100))+(M32*(Requerimientos!$M$17/100))+(N32*(Requerimientos!$M$18/100))+(O32*(Requerimientos!$M$19/100))+(P32*(Requerimientos!$M$20/100))+(Q32*(Requerimientos!$M$21/100))+(R32*(Requerimientos!$M$22/100)))/2</f>
         <v>3.1999999999999997</v>
       </c>
-      <c r="T32" s="24"/>
+      <c r="T32" s="23"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -19225,14 +19218,14 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="56">
+      <c r="B33" s="51">
         <v>5</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="18" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F33" s="2">
@@ -19274,11 +19267,11 @@
       <c r="R33" s="2">
         <v>10</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="10">
         <f>((F33*(Requerimientos!$M$10/100))+(G33*(Requerimientos!$M$11/100))+(H33*(Requerimientos!$M$12/100))+(I33*(Requerimientos!$M$13/100))+(J33*(Requerimientos!$M$14/100))+(K33*(Requerimientos!$M$15/100))+(L33*(Requerimientos!$M$16/100))+(M33*(Requerimientos!$M$17/100))+(N33*(Requerimientos!$M$18/100))+(O33*(Requerimientos!$M$19/100))+(P33*(Requerimientos!$M$20/100))+(Q33*(Requerimientos!$M$21/100))+(R33*(Requerimientos!$M$22/100)))/2</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="T33" s="24"/>
+      <c r="T33" s="23"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
@@ -19287,14 +19280,14 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="56">
+      <c r="B34" s="51">
         <v>6</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="18" t="s">
+      <c r="C34" s="52"/>
+      <c r="D34" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="2">
@@ -19336,11 +19329,11 @@
       <c r="R34" s="2">
         <v>10</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="10">
         <f>((F34*(Requerimientos!$M$10/100))+(G34*(Requerimientos!$M$11/100))+(H34*(Requerimientos!$M$12/100))+(I34*(Requerimientos!$M$13/100))+(J34*(Requerimientos!$M$14/100))+(K34*(Requerimientos!$M$15/100))+(L34*(Requerimientos!$M$16/100))+(M34*(Requerimientos!$M$17/100))+(N34*(Requerimientos!$M$18/100))+(O34*(Requerimientos!$M$19/100))+(P34*(Requerimientos!$M$20/100))+(Q34*(Requerimientos!$M$21/100))+(R34*(Requerimientos!$M$22/100)))/2</f>
         <v>5</v>
       </c>
-      <c r="T34" s="24"/>
+      <c r="T34" s="23"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
@@ -19349,14 +19342,14 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="56">
+      <c r="B35" s="51">
         <v>7</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="18" t="s">
+      <c r="C35" s="52"/>
+      <c r="D35" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="2">
@@ -19398,11 +19391,11 @@
       <c r="R35" s="2">
         <v>6</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S35" s="10">
         <f>((F35*(Requerimientos!$M$10/100))+(G35*(Requerimientos!$M$11/100))+(H35*(Requerimientos!$M$12/100))+(I35*(Requerimientos!$M$13/100))+(J35*(Requerimientos!$M$14/100))+(K35*(Requerimientos!$M$15/100))+(L35*(Requerimientos!$M$16/100))+(M35*(Requerimientos!$M$17/100))+(N35*(Requerimientos!$M$18/100))+(O35*(Requerimientos!$M$19/100))+(P35*(Requerimientos!$M$20/100))+(Q35*(Requerimientos!$M$21/100))+(R35*(Requerimientos!$M$22/100)))/2</f>
         <v>4.5250000000000004</v>
       </c>
-      <c r="T35" s="24"/>
+      <c r="T35" s="23"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -19411,14 +19404,14 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="58">
+      <c r="B36" s="57">
         <v>11</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="18" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F36" s="5">
@@ -19460,11 +19453,11 @@
       <c r="R36" s="2">
         <v>10</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S36" s="10">
         <f>((F36*(Requerimientos!$M$10/100))+(G36*(Requerimientos!$M$11/100))+(H36*(Requerimientos!$M$12/100))+(I36*(Requerimientos!$M$13/100))+(J36*(Requerimientos!$M$14/100))+(K36*(Requerimientos!$M$15/100))+(L36*(Requerimientos!$M$16/100))+(M36*(Requerimientos!$M$17/100))+(N36*(Requerimientos!$M$18/100))+(O36*(Requerimientos!$M$19/100))+(P36*(Requerimientos!$M$20/100))+(Q36*(Requerimientos!$M$21/100))+(R36*(Requerimientos!$M$22/100)))/2</f>
         <v>4.9249999999999998</v>
       </c>
-      <c r="T36" s="24"/>
+      <c r="T36" s="23"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -19473,14 +19466,14 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="56">
-        <v>10</v>
-      </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="18" t="s">
+      <c r="B37" s="51">
+        <v>10</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F37" s="2">
@@ -19522,11 +19515,11 @@
       <c r="R37" s="2">
         <v>0</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S37" s="10">
         <f>((F37*(Requerimientos!$M$10/100))+(G37*(Requerimientos!$M$11/100))+(H37*(Requerimientos!$M$12/100))+(I37*(Requerimientos!$M$13/100))+(J37*(Requerimientos!$M$14/100))+(K37*(Requerimientos!$M$15/100))+(L37*(Requerimientos!$M$16/100))+(M37*(Requerimientos!$M$17/100))+(N37*(Requerimientos!$M$18/100))+(O37*(Requerimientos!$M$19/100))+(P37*(Requerimientos!$M$20/100))+(Q37*(Requerimientos!$M$21/100))+(R37*(Requerimientos!$M$22/100)))/2</f>
         <v>2.7</v>
       </c>
-      <c r="T37" s="24"/>
+      <c r="T37" s="23"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
@@ -19535,14 +19528,14 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="56">
+      <c r="B38" s="51">
         <v>12</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="52"/>
+      <c r="D38" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>92</v>
       </c>
       <c r="F38" s="5">
@@ -19584,11 +19577,11 @@
       <c r="R38" s="2">
         <v>2</v>
       </c>
-      <c r="S38" s="11">
+      <c r="S38" s="10">
         <f>((F38*(Requerimientos!$M$10/100))+(G38*(Requerimientos!$M$11/100))+(H38*(Requerimientos!$M$12/100))+(I38*(Requerimientos!$M$13/100))+(J38*(Requerimientos!$M$14/100))+(K38*(Requerimientos!$M$15/100))+(L38*(Requerimientos!$M$16/100))+(M38*(Requerimientos!$M$17/100))+(N38*(Requerimientos!$M$18/100))+(O38*(Requerimientos!$M$19/100))+(P38*(Requerimientos!$M$20/100))+(Q38*(Requerimientos!$M$21/100))+(R38*(Requerimientos!$M$22/100)))/2</f>
         <v>4.05</v>
       </c>
-      <c r="T38" s="24"/>
+      <c r="T38" s="23"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
@@ -19597,25 +19590,25 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="19"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="18"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
@@ -19624,25 +19617,25 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="19"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="18"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
@@ -19651,25 +19644,25 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="19"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="18"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
@@ -19678,25 +19671,25 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="19"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="18"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
@@ -19707,8 +19700,8 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -19734,8 +19727,8 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -19761,8 +19754,8 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -19788,8 +19781,8 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -19815,8 +19808,8 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -19842,8 +19835,8 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -19869,8 +19862,8 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -19896,8 +19889,8 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -19923,8 +19916,8 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -19950,8 +19943,8 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -19977,8 +19970,8 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -20004,8 +19997,8 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -20031,8 +20024,8 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -20058,8 +20051,8 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -20085,8 +20078,8 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -20112,8 +20105,8 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -20139,8 +20132,8 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -20166,8 +20159,8 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -20193,8 +20186,8 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -20220,8 +20213,8 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -20247,8 +20240,8 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -20274,8 +20267,8 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -20301,8 +20294,8 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -20328,8 +20321,8 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -20355,8 +20348,8 @@
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -20382,8 +20375,8 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -20409,8 +20402,8 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -20436,8 +20429,8 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -20463,8 +20456,8 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -20490,8 +20483,8 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -20517,8 +20510,8 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -20544,8 +20537,8 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -20571,8 +20564,8 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -20598,8 +20591,8 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -20625,8 +20618,8 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -20652,8 +20645,8 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -20679,8 +20672,8 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -20706,8 +20699,8 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -20733,8 +20726,8 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -20760,8 +20753,8 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -20787,8 +20780,8 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -20814,8 +20807,8 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -20841,8 +20834,8 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -20868,8 +20861,8 @@
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -20895,8 +20888,8 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -20922,8 +20915,8 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -20949,8 +20942,8 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -20976,8 +20969,8 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -21003,8 +20996,8 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -21030,8 +21023,8 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -21057,8 +21050,8 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -21084,8 +21077,8 @@
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -21111,8 +21104,8 @@
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -21138,8 +21131,8 @@
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -21165,8 +21158,8 @@
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -21192,8 +21185,8 @@
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -21219,8 +21212,8 @@
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -21246,8 +21239,8 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -21273,8 +21266,8 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -21300,8 +21293,8 @@
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -21327,8 +21320,8 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -21354,8 +21347,8 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -21381,8 +21374,8 @@
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -21408,8 +21401,8 @@
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -21435,8 +21428,8 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -21462,8 +21455,8 @@
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -21489,8 +21482,8 @@
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -21516,8 +21509,8 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -21543,8 +21536,8 @@
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -21570,8 +21563,8 @@
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -21597,8 +21590,8 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
